--- a/Bingo.xlsx
+++ b/Bingo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elliot\Desktop\Miscellaneous\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elliot\Documents\GitHub\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bingo.xlsx
+++ b/Bingo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
   <si>
     <t>2013 AU</t>
   </si>
@@ -179,9 +179,6 @@
     <t>AAE 5620</t>
   </si>
   <si>
-    <t>CSE 2331</t>
-  </si>
-  <si>
     <t>project lab1</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>elec</t>
   </si>
   <si>
-    <t>Foundations 2</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -293,12 +287,6 @@
     <t>Systems 1</t>
   </si>
   <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Elec</t>
-  </si>
-  <si>
     <t>AAE 4516</t>
   </si>
   <si>
@@ -320,9 +308,6 @@
     <t>elec (helicop)</t>
   </si>
   <si>
-    <t>ece</t>
-  </si>
-  <si>
     <t>statistics</t>
   </si>
   <si>
@@ -357,6 +342,27 @@
   </si>
   <si>
     <t>Foundation 2</t>
+  </si>
+  <si>
+    <t>ECE 2201</t>
+  </si>
+  <si>
+    <t>Math elec</t>
+  </si>
+  <si>
+    <t>Discrete</t>
+  </si>
+  <si>
+    <t>ece 2</t>
+  </si>
+  <si>
+    <t>AAE 4999</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>GRE</t>
   </si>
 </sst>
 </file>
@@ -394,18 +400,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -428,20 +434,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +764,7 @@
     <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
@@ -761,11 +779,11 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2"/>
       <c r="I2" s="2" t="s">
@@ -773,11 +791,11 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N2" s="2"/>
       <c r="P2" s="2" t="s">
@@ -785,763 +803,763 @@
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5">
+        <v>3</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5">
+        <v>4</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="P3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5">
+        <v>3</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5">
+        <v>3</v>
+      </c>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
+        <v>3</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="P4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5">
+        <v>4</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5">
+        <v>4</v>
+      </c>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5">
         <v>3.7</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6">
-        <v>3</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6">
-        <v>4</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="P3" s="6" t="s">
+      <c r="N5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6">
-        <v>3</v>
-      </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6">
-        <v>3</v>
-      </c>
-      <c r="U3" s="6"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
-        <v>3</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6">
-        <v>3</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6">
-        <v>3</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="P4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6">
-        <v>4</v>
-      </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6">
-        <v>4</v>
-      </c>
-      <c r="U4" s="6"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="I7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6">
-        <v>2</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6">
-        <v>0</v>
-      </c>
-      <c r="U5" s="6"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5">
         <v>5</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6">
-        <v>0</v>
-      </c>
-      <c r="U6" s="6"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
-        <v>3</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6">
-        <v>5</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5">
         <v>2.7</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6">
-        <v>0</v>
-      </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6">
-        <v>0</v>
-      </c>
-      <c r="U7" s="6"/>
+      <c r="N7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6">
-        <v>0</v>
-      </c>
-      <c r="U8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6">
-        <v>0</v>
-      </c>
-      <c r="U9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6">
-        <v>0</v>
-      </c>
-      <c r="U10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6">
-        <v>0</v>
-      </c>
-      <c r="U11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
         <f>SUM(D3:D11)</f>
         <v>14</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f>G12/D12</f>
         <v>3.4714285714285715</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <f>D3*F3+D4*F4+D5*F5+D6*F6+D7*F7+D8*F8+D9*F9+D10*F10</f>
         <v>48.6</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5">
         <f>SUM(K3:K11)</f>
         <v>13</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <f>N12/K12</f>
         <v>3.2230769230769232</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <f>K3*M3+K4*M4+K5*M5+K6*M6+K7*M7+K8*M8+K9*M9+K10*M10</f>
         <v>41.9</v>
       </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5">
         <f>SUM(R3:R11)</f>
         <v>7</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="5">
         <f>U12/R12</f>
         <v>3.5714285714285716</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="6">
         <f>R3*T3+R4*T4+R5*T5+R6*T6+R7*T7+R8*T8+R9*T9+R10*T10</f>
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="I14" s="6" t="s">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N14" s="6"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="P14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5">
+        <v>4</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="5">
+        <v>4</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="U15" s="5"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5">
+        <v>3</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" s="5">
+        <v>3</v>
+      </c>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6">
+      <c r="G17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5">
+        <v>3</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="5">
+        <v>3</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5">
+        <v>3</v>
+      </c>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
         <v>2</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="I15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6">
-        <v>4</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6">
-        <v>2.7</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" s="1">
-        <v>4</v>
-      </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1">
+      <c r="G18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5">
+        <v>3</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5">
+        <v>3</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="5">
+        <v>3</v>
+      </c>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5">
+        <v>2</v>
+      </c>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5">
+        <v>3</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5">
         <v>3.7</v>
       </c>
-      <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6">
-        <v>4</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6">
-        <v>2.7</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="I16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6">
-        <v>3</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R16" s="1">
-        <v>3</v>
-      </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6">
-        <v>3</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6">
-        <v>4</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="I17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6">
-        <v>3</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R17" s="1">
-        <v>3</v>
-      </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1">
-        <v>3</v>
-      </c>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6">
-        <v>3</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6">
-        <v>2</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="I18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6">
-        <v>3</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6">
-        <v>3</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R18" s="1">
-        <v>3</v>
-      </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1">
-        <v>2</v>
-      </c>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6">
-        <v>3</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6">
-        <v>3</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="I19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6">
-        <v>3</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5">
+        <v>0</v>
+      </c>
+      <c r="U20" s="5"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="5"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5">
+        <v>0</v>
+      </c>
+      <c r="U23" s="5"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5">
         <f>SUM(D15:D23)</f>
         <v>17</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <f>G24/D24</f>
         <v>2.6941176470588233</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <f>D15*F15+D16*F16+D17*F17+D18*F18+D19*F19+D20*F20+D21*F21+D22*F22</f>
         <v>45.8</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5">
         <f>SUM(K15:K23)</f>
         <v>16</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <f>N24/K24</f>
         <v>3.3187500000000001</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="6">
         <f>K15*M15+K16*M16+K17*M17+K18*M18+K19*M19+K20*M20+K21*M21+K22*M22</f>
         <v>53.1</v>
       </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5">
         <f>SUM(R15:R23)</f>
         <v>13</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24" s="5">
         <f>U24/R24</f>
         <v>3.1461538461538465</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="6">
         <f>R15*T15+R16*T16+R17*T17+R18*T18+R19*T19+R20*T20+R21*T21+R22*T22</f>
         <v>40.900000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G26" s="2"/>
       <c r="I26" s="2" t="s">
@@ -1549,11 +1567,11 @@
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N26" s="2"/>
       <c r="P26" s="2" t="s">
@@ -1561,16 +1579,16 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1600,13 +1618,13 @@
       </c>
       <c r="N27" s="1"/>
       <c r="P27" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1">
@@ -1615,7 +1633,7 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
@@ -1648,7 +1666,7 @@
         <v>43</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R28" s="1">
         <v>3</v>
@@ -1660,7 +1678,7 @@
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1690,10 +1708,10 @@
       </c>
       <c r="N29" s="1"/>
       <c r="P29" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="R29" s="1">
         <v>3</v>
@@ -1705,7 +1723,7 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1734,10 +1752,14 @@
         <v>0</v>
       </c>
       <c r="N30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="P30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="R30" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1">
@@ -1746,7 +1768,7 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
@@ -1765,7 +1787,7 @@
         <v>28</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K31" s="1">
         <v>3</v>
@@ -1776,23 +1798,18 @@
       </c>
       <c r="N31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1">
-        <v>0</v>
-      </c>
+      <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="1">
-        <v>0</v>
-      </c>
+      <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
@@ -1802,31 +1819,29 @@
         <v>0</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K32" s="4">
-        <v>3</v>
-      </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-      <c r="N32" s="4"/>
+      <c r="K32" s="8">
+        <v>4</v>
+      </c>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
+      <c r="N32" s="8"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="1">
-        <v>0</v>
-      </c>
+      <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1847,13 +1862,11 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="1">
-        <v>0</v>
-      </c>
+      <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1874,13 +1887,11 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="1">
-        <v>0</v>
-      </c>
+      <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1901,13 +1912,11 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="1">
-        <v>0</v>
-      </c>
+      <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
@@ -1929,7 +1938,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1">
         <f>SUM(K27:K35)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>10</v>
@@ -1946,7 +1955,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1">
         <f>SUM(R27:R35)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>10</v>
@@ -1966,11 +1975,11 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G38" s="2"/>
       <c r="I38" s="2" t="s">
@@ -1978,11 +1987,11 @@
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N38" s="2"/>
       <c r="P38" s="2" t="s">
@@ -1990,11 +1999,11 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U38" s="2"/>
     </row>
@@ -2003,7 +2012,7 @@
         <v>47</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -2014,10 +2023,10 @@
       </c>
       <c r="G39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1">
         <v>2</v>
@@ -2028,13 +2037,11 @@
       </c>
       <c r="N39" s="1"/>
       <c r="P39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Q39" s="1"/>
       <c r="R39" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1">
@@ -2047,7 +2054,7 @@
         <v>48</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -2058,10 +2065,10 @@
       </c>
       <c r="G40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K40" s="1">
         <v>3</v>
@@ -2071,14 +2078,10 @@
         <v>0</v>
       </c>
       <c r="N40" s="1"/>
-      <c r="P40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
       <c r="R40" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1">
@@ -2091,7 +2094,7 @@
         <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -2102,10 +2105,10 @@
       </c>
       <c r="G41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K41" s="1">
         <v>3</v>
@@ -2126,19 +2129,19 @@
       </c>
       <c r="U41" s="1"/>
       <c r="X41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z41" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Y41" s="2" t="s">
+      <c r="AA41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Z41" s="2" t="s">
+      <c r="AB41" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="AA41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB41" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
@@ -2146,7 +2149,7 @@
         <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -2156,20 +2159,12 @@
         <v>0</v>
       </c>
       <c r="G42" s="1"/>
-      <c r="I42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K42" s="4">
-        <v>3</v>
-      </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="1">
-        <v>0</v>
-      </c>
-      <c r="N42" s="4"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1">
@@ -2198,17 +2193,17 @@
         <f>IF(Y42=0,0,Z42)</f>
         <v>14</v>
       </c>
-      <c r="AB42" s="5">
+      <c r="AB42" s="4">
         <f>Y42/Z42</f>
         <v>3.4714285714285715</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -2219,10 +2214,10 @@
       </c>
       <c r="G43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K43" s="1">
         <v>3</v>
@@ -2260,23 +2255,35 @@
         <f t="shared" ref="AA43:AA56" si="0">IF(Y43=0,0,Z43)</f>
         <v>13</v>
       </c>
-      <c r="AB43" s="5">
+      <c r="AB43" s="4">
         <f t="shared" ref="AB43:AB56" si="1">Y43/Z43</f>
         <v>3.2230769230769232</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44" s="1">
+        <v>4</v>
+      </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
         <v>0</v>
@@ -2308,7 +2315,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AB44" s="5">
+      <c r="AB44" s="4">
         <f t="shared" si="1"/>
         <v>3.5714285714285716</v>
       </c>
@@ -2356,7 +2363,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AB45" s="5">
+      <c r="AB45" s="4">
         <f t="shared" si="1"/>
         <v>2.6941176470588233</v>
       </c>
@@ -2404,7 +2411,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="AB46" s="5">
+      <c r="AB46" s="4">
         <f t="shared" si="1"/>
         <v>3.3187500000000001</v>
       </c>
@@ -2452,7 +2459,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AB47" s="5">
+      <c r="AB47" s="4">
         <f t="shared" si="1"/>
         <v>3.1461538461538465</v>
       </c>
@@ -2462,7 +2469,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1">
         <f>SUM(D39:D47)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>10</v>
@@ -2479,7 +2486,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1">
         <f>SUM(K39:K47)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>10</v>
@@ -2496,7 +2503,7 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1">
         <f>SUM(R39:R47)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>10</v>
@@ -2527,7 +2534,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB48" s="5">
+      <c r="AB48" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2545,13 +2552,13 @@
       </c>
       <c r="Z49" s="1">
         <f>K36</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA49" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB49" s="5">
+      <c r="AB49" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2562,11 +2569,11 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G50" s="2"/>
       <c r="I50" s="2" t="s">
@@ -2574,11 +2581,11 @@
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N50" s="2"/>
       <c r="P50" s="2" t="s">
@@ -2586,11 +2593,11 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U50" s="2"/>
       <c r="W50">
@@ -2605,20 +2612,20 @@
       </c>
       <c r="Z50" s="1">
         <f>R36</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AA50" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB50" s="5">
+      <c r="AB50" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1">
@@ -2630,7 +2637,7 @@
       </c>
       <c r="G51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1">
@@ -2641,17 +2648,11 @@
         <v>0</v>
       </c>
       <c r="N51" s="1"/>
-      <c r="P51" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="1">
-        <v>3</v>
-      </c>
+      <c r="R51" s="1"/>
       <c r="S51" s="1"/>
-      <c r="T51" s="1">
-        <v>0</v>
-      </c>
+      <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="W51">
         <v>10</v>
@@ -2665,20 +2666,20 @@
       </c>
       <c r="Z51" s="1">
         <f>D48</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AA51" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB51" s="5">
+      <c r="AB51" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
@@ -2690,7 +2691,7 @@
       </c>
       <c r="G52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1">
@@ -2701,17 +2702,11 @@
         <v>0</v>
       </c>
       <c r="N52" s="1"/>
-      <c r="P52" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="1">
-        <v>3</v>
-      </c>
+      <c r="R52" s="1"/>
       <c r="S52" s="1"/>
-      <c r="T52" s="1">
-        <v>0</v>
-      </c>
+      <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="W52">
         <v>11</v>
@@ -2725,20 +2720,20 @@
       </c>
       <c r="Z52" s="1">
         <f>K48</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA52" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB52" s="5">
+      <c r="AB52" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1">
@@ -2750,7 +2745,7 @@
       </c>
       <c r="G53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1">
@@ -2783,20 +2778,20 @@
       </c>
       <c r="Z53" s="1">
         <f>R48</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA53" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB53" s="5">
+      <c r="AB53" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1">
@@ -2808,7 +2803,7 @@
       </c>
       <c r="G54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1">
@@ -2841,19 +2836,21 @@
       </c>
       <c r="Z54" s="1">
         <f>D60</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AA54" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB54" s="5">
+      <c r="AB54" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1">
         <v>3</v>
@@ -2864,7 +2861,7 @@
       </c>
       <c r="G55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1">
@@ -2903,15 +2900,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB55" s="5">
+      <c r="AB55" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1">
+        <v>3</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1">
         <v>0</v>
@@ -2939,7 +2940,7 @@
         <v>15</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Y56" s="1">
         <f>U60</f>
@@ -2947,13 +2948,13 @@
       </c>
       <c r="Z56" s="1">
         <f>R60</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AA56" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB56" s="5">
+      <c r="AB56" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2987,7 +2988,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
-      <c r="AB57" s="5"/>
+      <c r="AB57" s="4"/>
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
@@ -3018,7 +3019,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
-      <c r="AB58" s="5"/>
+      <c r="AB58" s="4"/>
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
@@ -3049,14 +3050,14 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
-      <c r="AB59" s="5"/>
+      <c r="AB59" s="4"/>
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1">
         <f>SUM(D51:D59)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>10</v>
@@ -3090,7 +3091,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1">
         <f>SUM(R51:R59)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S60" s="1" t="s">
         <v>10</v>
@@ -3104,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Y60" s="1">
         <f>SUM(Y42:Y59)</f>
@@ -3112,13 +3113,13 @@
       </c>
       <c r="Z60" s="1">
         <f t="shared" ref="Z60:AA60" si="2">SUM(Z42:Z59)</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AA60" s="1">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="AB60" s="5">
+      <c r="AB60" s="4">
         <f>Y60/AA60</f>
         <v>3.1912500000000001</v>
       </c>

--- a/Bingo.xlsx
+++ b/Bingo.xlsx
@@ -44,9 +44,6 @@
     <t>Flight Vehicle Dyn</t>
   </si>
   <si>
-    <t>Fluids 1</t>
-  </si>
-  <si>
     <t>Flight Vehicle Str1</t>
   </si>
   <si>
@@ -363,6 +360,9 @@
   </si>
   <si>
     <t>GRE</t>
+  </si>
+  <si>
+    <t>FAD</t>
   </si>
 </sst>
 </file>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,45 +775,45 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U2" s="2"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5">
@@ -825,7 +825,7 @@
       </c>
       <c r="G3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5">
@@ -837,7 +837,7 @@
       </c>
       <c r="N3" s="5"/>
       <c r="P3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5">
@@ -851,7 +851,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -863,7 +863,7 @@
       </c>
       <c r="G4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5">
@@ -875,7 +875,7 @@
       </c>
       <c r="N4" s="5"/>
       <c r="P4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5">
@@ -889,7 +889,7 @@
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
@@ -901,7 +901,7 @@
       </c>
       <c r="G5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5">
@@ -925,7 +925,7 @@
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
@@ -937,14 +937,14 @@
       </c>
       <c r="G6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5">
         <v>0</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M6" s="5">
         <v>0</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
@@ -975,7 +975,7 @@
       </c>
       <c r="G7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5">
@@ -1109,7 +1109,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="5">
         <f>G12/D12</f>
@@ -1126,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M12" s="5">
         <f>N12/K12</f>
@@ -1143,7 +1143,7 @@
         <v>7</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T12" s="5">
         <f>U12/R12</f>
@@ -1160,41 +1160,41 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N14" s="2"/>
       <c r="P14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="G15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5">
@@ -1219,10 +1219,10 @@
       <c r="N15" s="5"/>
       <c r="O15" s="7"/>
       <c r="P15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R15" s="5">
         <v>4</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="G16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5">
@@ -1260,10 +1260,10 @@
       <c r="N16" s="5"/>
       <c r="O16" s="7"/>
       <c r="P16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R16" s="5">
         <v>3</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="G17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5">
@@ -1301,10 +1301,10 @@
       <c r="N17" s="5"/>
       <c r="O17" s="7"/>
       <c r="P17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R17" s="5">
         <v>3</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="G18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5">
@@ -1342,10 +1342,10 @@
       <c r="N18" s="5"/>
       <c r="O18" s="7"/>
       <c r="P18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R18" s="5">
         <v>3</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="G19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5">
@@ -1503,7 +1503,7 @@
         <v>17</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="5">
         <f>G24/D24</f>
@@ -1520,7 +1520,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M24" s="5">
         <f>N24/K24</f>
@@ -1537,7 +1537,7 @@
         <v>13</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T24" s="5">
         <f>U24/R24</f>
@@ -1551,39 +1551,39 @@
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N26" s="2"/>
       <c r="P26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U26" s="2"/>
     </row>
@@ -1604,10 +1604,10 @@
       </c>
       <c r="G27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27" s="1">
         <v>3</v>
@@ -1618,10 +1618,10 @@
       </c>
       <c r="N27" s="1"/>
       <c r="P27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="R27" s="1">
         <v>4</v>
@@ -1638,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
@@ -1649,10 +1649,10 @@
       </c>
       <c r="G28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28" s="1">
         <v>3</v>
@@ -1663,10 +1663,10 @@
       </c>
       <c r="N28" s="1"/>
       <c r="P28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R28" s="1">
         <v>3</v>
@@ -1683,7 +1683,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -1694,10 +1694,10 @@
       </c>
       <c r="G29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29" s="1">
         <v>3</v>
@@ -1708,10 +1708,10 @@
       </c>
       <c r="N29" s="1"/>
       <c r="P29" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R29" s="1">
         <v>3</v>
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
@@ -1739,10 +1739,10 @@
       </c>
       <c r="G30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30" s="1">
         <v>3</v>
@@ -1753,10 +1753,10 @@
       </c>
       <c r="N30" s="1"/>
       <c r="P30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q30" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="R30" s="1">
         <v>3</v>
@@ -1773,7 +1773,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
@@ -1784,10 +1784,10 @@
       </c>
       <c r="G31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K31" s="1">
         <v>3</v>
@@ -1806,10 +1806,10 @@
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
@@ -1820,10 +1820,10 @@
       </c>
       <c r="G32" s="1"/>
       <c r="I32" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32" s="8">
         <v>4</v>
@@ -1924,7 +1924,7 @@
         <v>19</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1">
         <f>G36/D36</f>
@@ -1941,7 +1941,7 @@
         <v>19</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M36" s="1">
         <f>N36/K36</f>
@@ -1958,7 +1958,7 @@
         <v>13</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T36" s="1">
         <f>U36/R36</f>
@@ -1971,48 +1971,48 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N38" s="2"/>
       <c r="P38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -2023,10 +2023,10 @@
       </c>
       <c r="G39" s="1"/>
       <c r="I39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="K39" s="1">
         <v>2</v>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="N39" s="1"/>
       <c r="P39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1">
@@ -2051,10 +2051,10 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -2065,10 +2065,10 @@
       </c>
       <c r="G40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K40" s="1">
         <v>3</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -2105,10 +2105,10 @@
       </c>
       <c r="G41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K41" s="1">
         <v>3</v>
@@ -2129,27 +2129,27 @@
       </c>
       <c r="U41" s="1"/>
       <c r="X41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Y41" s="2" t="s">
+      <c r="Z41" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Z41" s="2" t="s">
+      <c r="AA41" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AA41" s="2" t="s">
+      <c r="AB41" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="AB41" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -2159,11 +2159,19 @@
         <v>0</v>
       </c>
       <c r="G42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K42" s="1">
+        <v>3</v>
+      </c>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
       <c r="N42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -2179,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y42" s="1">
         <f>G12</f>
@@ -2200,10 +2208,10 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -2214,13 +2222,13 @@
       </c>
       <c r="G43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="K43" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -2241,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y43" s="1">
         <f>N12</f>
@@ -2262,10 +2270,10 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D44" s="1">
         <v>4</v>
@@ -2275,19 +2283,11 @@
         <v>0</v>
       </c>
       <c r="G44" s="1"/>
-      <c r="I44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K44" s="1">
-        <v>4</v>
-      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
+      <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -2301,7 +2301,7 @@
         <v>3</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y44" s="1">
         <f>U12</f>
@@ -2397,7 +2397,7 @@
         <v>5</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y46" s="1">
         <f>N24</f>
@@ -2445,7 +2445,7 @@
         <v>6</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y47" s="1">
         <f>U24</f>
@@ -2472,7 +2472,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F48" s="1">
         <f>G48/D48</f>
@@ -2489,7 +2489,7 @@
         <v>15</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M48" s="1">
         <f>N48/K48</f>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T48" s="1">
         <f>U48/R48</f>
@@ -2520,7 +2520,7 @@
         <v>7</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y48" s="1">
         <f>G36</f>
@@ -2544,7 +2544,7 @@
         <v>8</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y49" s="1">
         <f>N36</f>
@@ -2565,46 +2565,46 @@
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N50" s="2"/>
       <c r="P50" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U50" s="2"/>
       <c r="W50">
         <v>9</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y50" s="1">
         <f>U36</f>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="G51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1">
@@ -2658,7 +2658,7 @@
         <v>10</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y51" s="1">
         <f>G48</f>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="G52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1">
@@ -2712,7 +2712,7 @@
         <v>11</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y52" s="1">
         <f>N48</f>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="G53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1">
@@ -2770,7 +2770,7 @@
         <v>12</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y53" s="1">
         <f>U48</f>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="G54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1">
@@ -2828,7 +2828,7 @@
         <v>13</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y54" s="1">
         <f>G60</f>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="G55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1">
@@ -2886,7 +2886,7 @@
         <v>14</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y55" s="1">
         <f>N60</f>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1">
@@ -2940,7 +2940,7 @@
         <v>15</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y56" s="1">
         <f>U60</f>
@@ -3060,7 +3060,7 @@
         <v>18</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" s="1">
         <f>G60/D60</f>
@@ -3077,7 +3077,7 @@
         <v>15</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M60" s="1">
         <f>N60/K60</f>
@@ -3094,7 +3094,7 @@
         <v>3</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T60" s="1">
         <f>U60/R60</f>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y60" s="1">
         <f>SUM(Y42:Y59)</f>

--- a/Bingo.xlsx
+++ b/Bingo.xlsx
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G27" s="1"/>
       <c r="I27" s="1" t="s">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G28" s="1"/>
       <c r="I28" s="1" t="s">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G29" s="1"/>
       <c r="I29" s="1" t="s">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" s="1"/>
       <c r="I30" s="1" t="s">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G31" s="1"/>
       <c r="I31" s="1" t="s">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G32" s="1"/>
       <c r="I32" s="8" t="s">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="F36" s="1">
         <f>G36/D36</f>
-        <v>0</v>
+        <v>2.9842105263157896</v>
       </c>
       <c r="G36" s="3">
         <f>D27*F27+D28*F28+D29*F29+D30*F30+D31*F31+D32*F32+D33*F33+D34*F34</f>
-        <v>0</v>
+        <v>56.7</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2293,9 +2293,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-      <c r="T44" s="1">
-        <v>0</v>
-      </c>
+      <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="W44">
         <v>3</v>
@@ -2333,17 +2331,13 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="1">
-        <v>0</v>
-      </c>
+      <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
-      <c r="T45" s="1">
-        <v>0</v>
-      </c>
+      <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="W45">
         <v>4</v>
@@ -2381,17 +2375,13 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="1">
-        <v>0</v>
-      </c>
+      <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
-      <c r="T46" s="1">
-        <v>0</v>
-      </c>
+      <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="W46">
         <v>5</v>
@@ -2429,17 +2419,13 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="1">
-        <v>0</v>
-      </c>
+      <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
-      <c r="T47" s="1">
-        <v>0</v>
-      </c>
+      <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="W47">
         <v>6</v>
@@ -2524,7 +2510,7 @@
       </c>
       <c r="Y48" s="1">
         <f>G36</f>
-        <v>0</v>
+        <v>56.7</v>
       </c>
       <c r="Z48" s="1">
         <f>D36</f>
@@ -2532,11 +2518,11 @@
       </c>
       <c r="AA48" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AB48" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.9842105263157896</v>
       </c>
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.25">
@@ -3109,7 +3095,7 @@
       </c>
       <c r="Y60" s="1">
         <f>SUM(Y42:Y59)</f>
-        <v>255.3</v>
+        <v>312</v>
       </c>
       <c r="Z60" s="1">
         <f t="shared" ref="Z60:AA60" si="2">SUM(Z42:Z59)</f>
@@ -3117,11 +3103,11 @@
       </c>
       <c r="AA60" s="1">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AB60" s="4">
         <f>Y60/AA60</f>
-        <v>3.1912500000000001</v>
+        <v>3.1515151515151514</v>
       </c>
     </row>
   </sheetData>
